--- a/thesisdata/推定に関するデータ.xlsx
+++ b/thesisdata/推定に関するデータ.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="8">
   <si>
     <t>被験者番号</t>
     <rPh sb="0" eb="3">
@@ -105,7 +105,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -131,13 +131,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -155,6 +170,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -436,27 +457,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B7"/>
+      <selection activeCell="E1" sqref="E1:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="E1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -466,8 +495,14 @@
       <c r="D2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E2" s="6">
+        <v>1</v>
+      </c>
+      <c r="F2" s="7">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -477,8 +512,14 @@
       <c r="D3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E3" s="6">
+        <v>2</v>
+      </c>
+      <c r="F3" s="7">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -488,8 +529,14 @@
       <c r="D4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E4" s="6">
+        <v>3</v>
+      </c>
+      <c r="F4" s="7">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -499,8 +546,14 @@
       <c r="D5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E5" s="6">
+        <v>4</v>
+      </c>
+      <c r="F5" s="7">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -510,13 +563,26 @@
       <c r="D6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E6" s="6">
+        <v>5</v>
+      </c>
+      <c r="F6" s="7">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="4">
         <f>SUM(B2:B6)</f>
+        <v>398</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="7">
+        <f>SUM(F2:F6)</f>
         <v>398</v>
       </c>
     </row>
